--- a/public/assets/excel/reminderKrs3Import.xlsx
+++ b/public/assets/excel/reminderKrs3Import.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\blash-piutang\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF876782-0006-4B55-A4E4-276924CED531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41AD4FC-6778-48AF-B3A3-F5E7FD2BB869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FECB54D9-806B-4482-9640-AA322C8D4582}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PETUNJUK" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>NAME</t>
   </si>
@@ -69,6 +70,18 @@
   </si>
   <si>
     <t>26 Januari - 09 Februari 2023</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>TAHAP I REMINDER KRS 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>TAHAP II REMINDER KRS 1 &amp; 2</t>
   </si>
 </sst>
 </file>
@@ -138,13 +151,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -461,66 +480,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAA0321-B63A-417D-8A40-85A07CD38846}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>44945</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E03C1CD4-6C6D-45F7-8F4F-FAD64D6FAF08}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E03C1CD4-6C6D-45F7-8F4F-FAD64D6FAF08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F66EA-EBFE-4997-B958-2D27775DDC5F}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B4:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>